--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.020221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.020221.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1199,12 +1199,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2519,12 +2519,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2759,12 +2759,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3079,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3847,12 +3847,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3927,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4167,12 +4167,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4567,12 +4567,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4807,12 +4807,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5207,12 +5207,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5487,12 +5487,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5807,12 +5807,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5847,12 +5847,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5967,12 +5967,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6371,12 +6371,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6611,12 +6611,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6651,12 +6651,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6731,12 +6731,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6851,12 +6851,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8135,12 +8135,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8819,12 +8819,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9107,12 +9107,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9147,12 +9147,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10071,12 +10071,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10111,12 +10111,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10351,12 +10351,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11111,12 +11111,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11151,12 +11151,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11231,12 +11231,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11271,12 +11271,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11511,12 +11511,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11551,12 +11551,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11671,12 +11671,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11751,12 +11751,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12071,12 +12071,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12271,12 +12271,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12391,12 +12391,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12595,12 +12595,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13035,12 +13035,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13155,12 +13155,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13519,12 +13519,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13839,12 +13839,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14299,12 +14299,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14417,12 +14417,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14455,12 +14455,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14645,12 +14645,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14873,12 +14873,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14911,12 +14911,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14949,12 +14949,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14987,12 +14987,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15443,12 +15443,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15519,12 +15519,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15557,12 +15557,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15861,12 +15861,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16815,12 +16815,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17123,12 +17123,12 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17465,12 +17465,12 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17503,12 +17503,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17617,12 +17617,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17655,12 +17655,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17921,12 +17921,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18225,12 +18225,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18605,12 +18605,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18795,12 +18795,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19563,12 +19563,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19601,12 +19601,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19715,12 +19715,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19829,12 +19829,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19867,12 +19867,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19981,12 +19981,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20209,12 +20209,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20589,12 +20589,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20779,12 +20779,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20817,12 +20817,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21043,12 +21043,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21879,12 +21879,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22913,12 +22913,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -23027,12 +23027,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23217,12 +23217,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23331,12 +23331,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24433,12 +24433,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24889,12 +24889,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25197,12 +25197,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25349,12 +25349,12 @@
       <c r="H636" t="inlineStr"/>
       <c r="I636" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25615,12 +25615,12 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26029,12 +26029,12 @@
       <c r="H654" t="inlineStr"/>
       <c r="I654" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26337,12 +26337,12 @@
       <c r="H662" t="inlineStr"/>
       <c r="I662" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26375,12 +26375,12 @@
       <c r="H663" t="inlineStr"/>
       <c r="I663" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26413,12 +26413,12 @@
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26527,12 +26527,12 @@
       <c r="H667" t="inlineStr"/>
       <c r="I667" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27135,12 +27135,12 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27211,12 +27211,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29035,12 +29035,12 @@
       <c r="H733" t="inlineStr"/>
       <c r="I733" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29111,12 +29111,12 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29263,12 +29263,12 @@
       <c r="H739" t="inlineStr"/>
       <c r="I739" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29643,12 +29643,12 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29945,12 +29945,12 @@
       <c r="H757" t="inlineStr"/>
       <c r="I757" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30173,12 +30173,12 @@
       <c r="H763" t="inlineStr"/>
       <c r="I763" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30633,12 +30633,12 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30899,12 +30899,12 @@
       <c r="H782" t="inlineStr"/>
       <c r="I782" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30979,12 +30979,12 @@
       <c r="H784" t="inlineStr"/>
       <c r="I784" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31131,12 +31131,12 @@
       <c r="H788" t="inlineStr"/>
       <c r="I788" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31473,12 +31473,12 @@
       <c r="H797" t="inlineStr"/>
       <c r="I797" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31511,12 +31511,12 @@
       <c r="H798" t="inlineStr"/>
       <c r="I798" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31549,12 +31549,12 @@
       <c r="H799" t="inlineStr"/>
       <c r="I799" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31739,12 +31739,12 @@
       <c r="H804" t="inlineStr"/>
       <c r="I804" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32157,12 +32157,12 @@
       <c r="H815" t="inlineStr"/>
       <c r="I815" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32803,12 +32803,12 @@
       <c r="H832" t="inlineStr"/>
       <c r="I832" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32955,12 +32955,12 @@
       <c r="H836" t="inlineStr"/>
       <c r="I836" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33069,12 +33069,12 @@
       <c r="H839" t="inlineStr"/>
       <c r="I839" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33221,12 +33221,12 @@
       <c r="H843" t="inlineStr"/>
       <c r="I843" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33297,12 +33297,12 @@
       <c r="H845" t="inlineStr"/>
       <c r="I845" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33867,12 +33867,12 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34057,12 +34057,12 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34171,12 +34171,12 @@
       <c r="H868" t="inlineStr"/>
       <c r="I868" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34783,12 +34783,12 @@
       <c r="H884" t="inlineStr"/>
       <c r="I884" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -35509,12 +35509,12 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35547,12 +35547,12 @@
       <c r="H904" t="inlineStr"/>
       <c r="I904" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35737,12 +35737,12 @@
       <c r="H909" t="inlineStr"/>
       <c r="I909" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35965,12 +35965,12 @@
       <c r="H915" t="inlineStr"/>
       <c r="I915" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36231,12 +36231,12 @@
       <c r="H922" t="inlineStr"/>
       <c r="I922" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36383,12 +36383,12 @@
       <c r="H926" t="inlineStr"/>
       <c r="I926" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -36459,12 +36459,12 @@
       <c r="H928" t="inlineStr"/>
       <c r="I928" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36839,12 +36839,12 @@
       <c r="H938" t="inlineStr"/>
       <c r="I938" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -36991,12 +36991,12 @@
       <c r="H942" t="inlineStr"/>
       <c r="I942" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37105,12 +37105,12 @@
       <c r="H945" t="inlineStr"/>
       <c r="I945" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37257,12 +37257,12 @@
       <c r="H949" t="inlineStr"/>
       <c r="I949" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37371,12 +37371,12 @@
       <c r="H952" t="inlineStr"/>
       <c r="I952" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37713,12 +37713,12 @@
       <c r="H961" t="inlineStr"/>
       <c r="I961" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37903,12 +37903,12 @@
       <c r="H966" t="inlineStr"/>
       <c r="I966" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38173,12 +38173,12 @@
       <c r="H973" t="inlineStr"/>
       <c r="I973" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -38531,12 +38531,12 @@
       <c r="H982" t="inlineStr"/>
       <c r="I982" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38771,12 +38771,12 @@
       <c r="H988" t="inlineStr"/>
       <c r="I988" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38851,12 +38851,12 @@
       <c r="H990" t="inlineStr"/>
       <c r="I990" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39131,12 +39131,12 @@
       <c r="H997" t="inlineStr"/>
       <c r="I997" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J997" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -39651,12 +39651,12 @@
       <c r="H1010" t="inlineStr"/>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
